--- a/presentationIndex/slideInformation.xlsx
+++ b/presentationIndex/slideInformation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitHub repo\dissertationData\presentationIndex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91BC757-ED5E-4145-8A9C-8FD947DB463B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83364A81-B7F5-414C-B852-407C512DEADA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,13 +57,32 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,9 +97,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,25 +391,25 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B7" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.9296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.53125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="63.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.265625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -390,7 +417,7 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -398,7 +425,7 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -406,7 +433,7 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -414,7 +441,7 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -422,7 +449,7 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -430,7 +457,7 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -438,7 +465,7 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -446,7 +473,7 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -454,7 +481,7 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -462,7 +489,7 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -470,7 +497,7 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -478,7 +505,7 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -486,7 +513,7 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -494,7 +521,7 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -502,7 +529,7 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -510,7 +537,7 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -518,7 +545,7 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -526,7 +553,7 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -534,7 +561,7 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -542,7 +569,7 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -550,7 +577,7 @@
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -558,7 +585,7 @@
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -566,7 +593,7 @@
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -574,7 +601,7 @@
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -582,7 +609,7 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -590,7 +617,7 @@
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -598,7 +625,7 @@
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -606,7 +633,7 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -614,7 +641,7 @@
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -622,7 +649,7 @@
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -630,7 +657,7 @@
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -638,7 +665,7 @@
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -646,7 +673,7 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -654,7 +681,7 @@
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -662,7 +689,7 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -670,7 +697,7 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -678,7 +705,7 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -686,7 +713,7 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -694,7 +721,7 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -702,7 +729,7 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -710,7 +737,7 @@
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -718,7 +745,7 @@
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -726,7 +753,7 @@
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -734,7 +761,7 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -742,7 +769,7 @@
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -750,7 +777,7 @@
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -758,7 +785,7 @@
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -766,7 +793,7 @@
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -774,7 +801,7 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -782,7 +809,7 @@
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -790,7 +817,7 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -798,7 +825,7 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -806,7 +833,7 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -814,7 +841,7 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -822,7 +849,7 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -830,7 +857,7 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -838,7 +865,7 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -846,7 +873,7 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -854,7 +881,7 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -862,7 +889,7 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -870,7 +897,7 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -878,7 +905,7 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>3</v>
       </c>
     </row>
